--- a/capiq_data/in_process_data/IQ34952431.xlsx
+++ b/capiq_data/in_process_data/IQ34952431.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C3AB69-E3C3-4968-86A9-660F6FD05422}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3A1B42-E421-4F2B-AA71-9E64E41A9041}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"8ed64047-caef-4487-9efb-b0ade2bc146f"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"2482984c-5dd1-4ea0-8bb7-56f5beb2ef99"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$46</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$46</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$46</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$46</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$46</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$46</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$46</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$46</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$46</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$46</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$46</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$46</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$46</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$46</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$46</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$46</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$46</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$46</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$46</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$46</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$46</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$46</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$46</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$46</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$46</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$46</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +745,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>40178</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>63</v>
+        <v>127.1</v>
       </c>
       <c r="D2">
-        <v>1953.9</v>
+        <v>1950.7</v>
       </c>
       <c r="E2">
-        <v>892</v>
+        <v>916.2</v>
       </c>
       <c r="F2">
-        <v>851.8</v>
+        <v>778</v>
       </c>
       <c r="G2">
-        <v>1786.9</v>
+        <v>1380.3</v>
       </c>
       <c r="H2">
-        <v>28908.1</v>
+        <v>27581</v>
       </c>
       <c r="I2">
-        <v>647.5</v>
+        <v>620.79999999999995</v>
       </c>
       <c r="J2">
-        <v>13882.1</v>
+        <v>13459.2</v>
       </c>
       <c r="K2">
-        <v>34.299999999999997</v>
+        <v>36.6</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +784,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3644.1</v>
+        <v>2319.1999999999998</v>
       </c>
       <c r="O2">
-        <v>20369.099999999999</v>
+        <v>18735.900000000001</v>
       </c>
       <c r="P2">
-        <v>15929.7</v>
+        <v>14264.5</v>
       </c>
       <c r="Q2">
-        <v>305.8</v>
+        <v>-60.5</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>40178</v>
       </c>
       <c r="S2">
-        <v>8142</v>
+        <v>7900</v>
       </c>
       <c r="T2">
-        <v>8539</v>
+        <v>8845.1</v>
       </c>
       <c r="U2">
-        <v>502.4</v>
+        <v>165.6</v>
       </c>
       <c r="V2">
-        <v>690.3</v>
+        <v>660.2</v>
       </c>
       <c r="W2">
-        <v>-200</v>
+        <v>-350</v>
       </c>
       <c r="X2">
-        <v>-0.4</v>
+        <v>110.6</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-48.4</v>
+        <v>-358.4</v>
       </c>
       <c r="AA2">
-        <v>63</v>
+        <v>127.1</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>40268</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>155</v>
+        <v>-160.9</v>
       </c>
       <c r="D3">
-        <v>1932</v>
+        <v>2157.6</v>
       </c>
       <c r="E3">
-        <v>851</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>841</v>
+        <v>686.5</v>
       </c>
       <c r="G3">
-        <v>1288.8</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>28406.5</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>601.1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>13959.2</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>37.1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-3492</v>
+        <v>-814.9</v>
       </c>
       <c r="N3">
-        <v>3397</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>20192.7</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>15697.5</v>
+        <v>14264.5</v>
       </c>
       <c r="Q3">
-        <v>-312</v>
+        <v>-28.5</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>40268</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>8213.7999999999993</v>
+        <v>8845.1</v>
       </c>
       <c r="U3">
-        <v>189.5</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>483</v>
+        <v>438.7</v>
       </c>
       <c r="W3">
-        <v>-246</v>
+        <v>-150</v>
       </c>
       <c r="X3">
-        <v>-570</v>
+        <v>34.5</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>61</v>
+        <v>-62.1</v>
       </c>
       <c r="AA3">
-        <v>155</v>
+        <v>-160.9</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>40359</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>1952</v>
+        <v>1990.9</v>
       </c>
       <c r="E4">
-        <v>826.2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>642</v>
+        <v>823.8</v>
       </c>
       <c r="G4">
-        <v>1632.6</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>28969.9</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>663.7</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>14058.8</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>20.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +950,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3030.6</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>20166.5</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>15469.2</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>164</v>
+        <v>7.6</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>40359</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>8803.4</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>354.4</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>471</v>
+        <v>296.60000000000002</v>
       </c>
       <c r="W4">
-        <v>-99</v>
+        <v>-175</v>
       </c>
       <c r="X4">
-        <v>-16</v>
+        <v>892.3</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>10</v>
+        <v>-939.1</v>
       </c>
       <c r="AA4">
-        <v>132</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>40451</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>152</v>
+        <v>10.6</v>
       </c>
       <c r="D5">
-        <v>2122</v>
+        <v>2088.1999999999998</v>
       </c>
       <c r="E5">
-        <v>829.8</v>
+        <v>759.4</v>
       </c>
       <c r="F5">
-        <v>809</v>
+        <v>793.3</v>
       </c>
       <c r="G5">
-        <v>1478.2</v>
+        <v>1261.9000000000001</v>
       </c>
       <c r="H5">
-        <v>30157.4</v>
+        <v>28748.799999999999</v>
       </c>
       <c r="I5">
-        <v>640.4</v>
+        <v>599.9</v>
       </c>
       <c r="J5">
-        <v>13851.5</v>
+        <v>13452.4</v>
       </c>
       <c r="K5">
-        <v>41.9</v>
+        <v>446.2</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1033,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4395</v>
+        <v>4012.9</v>
       </c>
       <c r="O5">
-        <v>21409.9</v>
+        <v>20019.5</v>
       </c>
       <c r="P5">
-        <v>16954.400000000001</v>
+        <v>15937.8</v>
       </c>
       <c r="Q5">
-        <v>-80</v>
+        <v>51.9</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>40451</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>8747.5</v>
+        <v>8729.2999999999993</v>
       </c>
       <c r="U5">
-        <v>273.89999999999998</v>
+        <v>196.6</v>
       </c>
       <c r="V5">
-        <v>642</v>
+        <v>483.2</v>
       </c>
       <c r="W5">
-        <v>-212</v>
+        <v>-175</v>
       </c>
       <c r="X5">
-        <v>563</v>
+        <v>-216.5</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-183</v>
+        <v>49.1</v>
       </c>
       <c r="AA5">
-        <v>152</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>40543</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>1937</v>
+        <v>1953.9</v>
       </c>
       <c r="E6">
-        <v>932</v>
+        <v>892</v>
       </c>
       <c r="F6">
-        <v>882</v>
+        <v>851.8</v>
       </c>
       <c r="G6">
-        <v>1663</v>
+        <v>1786.9</v>
       </c>
       <c r="H6">
-        <v>30717</v>
+        <v>28908.1</v>
       </c>
       <c r="I6">
-        <v>728</v>
+        <v>647.5</v>
       </c>
       <c r="J6">
-        <v>14356</v>
+        <v>13882.1</v>
       </c>
       <c r="K6">
-        <v>668</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1116,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>4529</v>
+        <v>3644.1</v>
       </c>
       <c r="O6">
-        <v>22149</v>
+        <v>20369.099999999999</v>
       </c>
       <c r="P6">
-        <v>17278</v>
+        <v>15929.7</v>
       </c>
       <c r="Q6">
-        <v>137</v>
+        <v>305.8</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>40543</v>
       </c>
       <c r="S6">
-        <v>8120</v>
+        <v>8142</v>
       </c>
       <c r="T6">
-        <v>8568</v>
+        <v>8539</v>
       </c>
       <c r="U6">
-        <v>411</v>
+        <v>502.4</v>
       </c>
       <c r="V6">
-        <v>770</v>
+        <v>690.3</v>
       </c>
       <c r="W6">
-        <v>-213</v>
+        <v>-200</v>
       </c>
       <c r="X6">
-        <v>-34</v>
+        <v>-0.4</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-994</v>
+        <v>-48.4</v>
       </c>
       <c r="AA6">
-        <v>155</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>40633</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="D7">
-        <v>1857</v>
+        <v>1932</v>
       </c>
       <c r="E7">
-        <v>744</v>
+        <v>851</v>
       </c>
       <c r="F7">
-        <v>971</v>
+        <v>841</v>
       </c>
       <c r="G7">
-        <v>3902</v>
+        <v>1288.8</v>
       </c>
       <c r="H7">
-        <v>30370</v>
+        <v>28406.5</v>
       </c>
       <c r="I7">
-        <v>629</v>
+        <v>601.1</v>
       </c>
       <c r="J7">
-        <v>15247</v>
+        <v>13959.2</v>
       </c>
       <c r="K7">
-        <v>64</v>
+        <v>37.1</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-2438</v>
+        <v>-3492</v>
       </c>
       <c r="N7">
-        <v>3708</v>
+        <v>3397</v>
       </c>
       <c r="O7">
-        <v>22248</v>
+        <v>20192.7</v>
       </c>
       <c r="P7">
-        <v>17437</v>
+        <v>15697.5</v>
       </c>
       <c r="Q7">
-        <v>83</v>
+        <v>-312</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>40633</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>8122</v>
+        <v>8213.7999999999993</v>
       </c>
       <c r="U7">
-        <v>494</v>
+        <v>189.5</v>
       </c>
       <c r="V7">
-        <v>560</v>
+        <v>483</v>
       </c>
       <c r="W7">
-        <v>-220</v>
+        <v>-246</v>
       </c>
       <c r="X7">
-        <v>-119</v>
+        <v>-570</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>61</v>
       </c>
       <c r="AA7">
-        <v>21</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>40724</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>-126</v>
+        <v>132</v>
       </c>
       <c r="D8">
-        <v>2167</v>
+        <v>1952</v>
       </c>
       <c r="E8">
-        <v>1185</v>
+        <v>826.2</v>
       </c>
       <c r="F8">
-        <v>1143</v>
+        <v>642</v>
       </c>
       <c r="G8">
-        <v>5331</v>
+        <v>1632.6</v>
       </c>
       <c r="H8">
-        <v>69575</v>
+        <v>28969.9</v>
       </c>
       <c r="I8">
-        <v>947</v>
+        <v>663.7</v>
       </c>
       <c r="J8">
-        <v>33840</v>
+        <v>14058.8</v>
       </c>
       <c r="K8">
-        <v>28</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1282,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>6132</v>
+        <v>3030.6</v>
       </c>
       <c r="O8">
-        <v>46385</v>
+        <v>20166.5</v>
       </c>
       <c r="P8">
-        <v>37145</v>
+        <v>15469.2</v>
       </c>
       <c r="Q8">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>40724</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>23190</v>
+        <v>8803.4</v>
       </c>
       <c r="U8">
-        <v>675</v>
+        <v>354.4</v>
       </c>
       <c r="V8">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="W8">
-        <v>-226</v>
+        <v>-99</v>
       </c>
       <c r="X8">
-        <v>5162</v>
+        <v>-16</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA8">
-        <v>-126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>40816</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="D9">
-        <v>2870</v>
+        <v>2122</v>
       </c>
       <c r="E9">
-        <v>1237</v>
+        <v>829.8</v>
       </c>
       <c r="F9">
-        <v>1525</v>
+        <v>809</v>
       </c>
       <c r="G9">
-        <v>5122</v>
+        <v>1478.2</v>
       </c>
       <c r="H9">
-        <v>70053</v>
+        <v>30157.4</v>
       </c>
       <c r="I9">
-        <v>1066</v>
+        <v>640.4</v>
       </c>
       <c r="J9">
-        <v>32475</v>
+        <v>13851.5</v>
       </c>
       <c r="K9">
-        <v>66</v>
+        <v>41.9</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1365,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>6860</v>
+        <v>4395</v>
       </c>
       <c r="O9">
-        <v>46155</v>
+        <v>21409.9</v>
       </c>
       <c r="P9">
-        <v>36490</v>
+        <v>16954.400000000001</v>
       </c>
       <c r="Q9">
-        <v>100</v>
+        <v>-80</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>40816</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>23898</v>
+        <v>8747.5</v>
       </c>
       <c r="U9">
-        <v>775</v>
+        <v>273.89999999999998</v>
       </c>
       <c r="V9">
-        <v>914</v>
+        <v>642</v>
       </c>
       <c r="W9">
-        <v>-364</v>
+        <v>-212</v>
       </c>
       <c r="X9">
-        <v>-254</v>
+        <v>563</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-11</v>
+        <v>-183</v>
       </c>
       <c r="AA9">
-        <v>200</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>40908</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="D10">
-        <v>3079</v>
+        <v>1937</v>
       </c>
       <c r="E10">
-        <v>1351</v>
+        <v>932</v>
       </c>
       <c r="F10">
-        <v>1575</v>
+        <v>882</v>
       </c>
       <c r="G10">
-        <v>3674</v>
+        <v>1663</v>
       </c>
       <c r="H10">
-        <v>68245</v>
+        <v>30717</v>
       </c>
       <c r="I10">
-        <v>1248</v>
+        <v>728</v>
       </c>
       <c r="J10">
-        <v>32001</v>
+        <v>14356</v>
       </c>
       <c r="K10">
-        <v>621</v>
+        <v>668</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1448,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5228</v>
+        <v>4529</v>
       </c>
       <c r="O10">
-        <v>44145</v>
+        <v>22149</v>
       </c>
       <c r="P10">
-        <v>34402</v>
+        <v>17278</v>
       </c>
       <c r="Q10">
-        <v>-61</v>
+        <v>137</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>40908</v>
       </c>
       <c r="S10">
-        <v>10685</v>
+        <v>8120</v>
       </c>
       <c r="T10">
-        <v>24100</v>
+        <v>8568</v>
       </c>
       <c r="U10">
-        <v>714</v>
+        <v>411</v>
       </c>
       <c r="V10">
-        <v>868</v>
+        <v>770</v>
       </c>
       <c r="W10">
-        <v>-374</v>
+        <v>-213</v>
       </c>
       <c r="X10">
-        <v>-2205</v>
+        <v>-34</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>7</v>
+        <v>-994</v>
       </c>
       <c r="AA10">
-        <v>220</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>40999</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>292</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>3060</v>
+        <v>1857</v>
       </c>
       <c r="E11">
-        <v>1290</v>
+        <v>744</v>
       </c>
       <c r="F11">
-        <v>1671</v>
+        <v>971</v>
       </c>
       <c r="G11">
-        <v>3686</v>
+        <v>3902</v>
       </c>
       <c r="H11">
-        <v>68308</v>
+        <v>30370</v>
       </c>
       <c r="I11">
-        <v>1111</v>
+        <v>629</v>
       </c>
       <c r="J11">
-        <v>31517</v>
+        <v>15247</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-3091</v>
+        <v>-2438</v>
       </c>
       <c r="N11">
-        <v>5582</v>
+        <v>3708</v>
       </c>
       <c r="O11">
-        <v>44000</v>
+        <v>22248</v>
       </c>
       <c r="P11">
-        <v>34393</v>
+        <v>17437</v>
       </c>
       <c r="Q11">
-        <v>392</v>
+        <v>83</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>40999</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>24308</v>
+        <v>8122</v>
       </c>
       <c r="U11">
-        <v>1106</v>
+        <v>494</v>
       </c>
       <c r="V11">
-        <v>767</v>
+        <v>560</v>
       </c>
       <c r="W11">
-        <v>-384</v>
+        <v>-220</v>
       </c>
       <c r="X11">
-        <v>-253</v>
+        <v>-119</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>488</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>292</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>41090</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>277</v>
+        <v>-126</v>
       </c>
       <c r="D12">
-        <v>3382</v>
+        <v>2167</v>
       </c>
       <c r="E12">
-        <v>1488</v>
+        <v>1185</v>
       </c>
       <c r="F12">
-        <v>1485</v>
+        <v>1143</v>
       </c>
       <c r="G12">
-        <v>3772</v>
+        <v>5331</v>
       </c>
       <c r="H12">
-        <v>74120</v>
+        <v>69575</v>
       </c>
       <c r="I12">
-        <v>1326</v>
+        <v>947</v>
       </c>
       <c r="J12">
-        <v>31625</v>
+        <v>33840</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1614,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>7333</v>
+        <v>6132</v>
       </c>
       <c r="O12">
-        <v>45581</v>
+        <v>46385</v>
       </c>
       <c r="P12">
-        <v>35595</v>
+        <v>37145</v>
       </c>
       <c r="Q12">
-        <v>-89</v>
+        <v>181</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>41090</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>28539</v>
+        <v>23190</v>
       </c>
       <c r="U12">
-        <v>1017</v>
+        <v>675</v>
       </c>
       <c r="V12">
-        <v>967</v>
+        <v>453</v>
       </c>
       <c r="W12">
-        <v>-395</v>
+        <v>-226</v>
       </c>
       <c r="X12">
-        <v>-41</v>
+        <v>5162</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-12</v>
+        <v>13</v>
       </c>
       <c r="AA12">
-        <v>277</v>
+        <v>-126</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>41182</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>286</v>
+        <v>200</v>
       </c>
       <c r="D13">
-        <v>3756</v>
+        <v>2870</v>
       </c>
       <c r="E13">
-        <v>1420</v>
+        <v>1237</v>
       </c>
       <c r="F13">
-        <v>1696</v>
+        <v>1525</v>
       </c>
       <c r="G13">
-        <v>3591</v>
+        <v>5122</v>
       </c>
       <c r="H13">
-        <v>74575</v>
+        <v>70053</v>
       </c>
       <c r="I13">
-        <v>1427</v>
+        <v>1066</v>
       </c>
       <c r="J13">
-        <v>33117</v>
+        <v>32475</v>
       </c>
       <c r="K13">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1697,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>6415</v>
+        <v>6860</v>
       </c>
       <c r="O13">
-        <v>46273</v>
+        <v>46155</v>
       </c>
       <c r="P13">
-        <v>36090</v>
+        <v>36490</v>
       </c>
       <c r="Q13">
-        <v>-201</v>
+        <v>100</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>41182</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>28302</v>
+        <v>23898</v>
       </c>
       <c r="U13">
-        <v>816</v>
+        <v>775</v>
       </c>
       <c r="V13">
-        <v>1058</v>
+        <v>914</v>
       </c>
       <c r="W13">
-        <v>-417</v>
+        <v>-364</v>
       </c>
       <c r="X13">
-        <v>-331</v>
+        <v>-254</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-40</v>
+        <v>-11</v>
       </c>
       <c r="AA13">
-        <v>286</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>41274</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>338</v>
+        <v>220</v>
       </c>
       <c r="D14">
-        <v>3872</v>
+        <v>3079</v>
       </c>
       <c r="E14">
-        <v>1804</v>
+        <v>1351</v>
       </c>
       <c r="F14">
-        <v>1853</v>
+        <v>1575</v>
       </c>
       <c r="G14">
-        <v>3868</v>
+        <v>3674</v>
       </c>
       <c r="H14">
-        <v>75185</v>
+        <v>68245</v>
       </c>
       <c r="I14">
-        <v>1676</v>
+        <v>1248</v>
       </c>
       <c r="J14">
-        <v>34003</v>
+        <v>32001</v>
       </c>
       <c r="K14">
-        <v>979</v>
+        <v>621</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1780,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>6075</v>
+        <v>5228</v>
       </c>
       <c r="O14">
-        <v>46900</v>
+        <v>44145</v>
       </c>
       <c r="P14">
-        <v>36309</v>
+        <v>34402</v>
       </c>
       <c r="Q14">
-        <v>-218</v>
+        <v>-61</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>41274</v>
       </c>
       <c r="S14">
-        <v>11075</v>
+        <v>10685</v>
       </c>
       <c r="T14">
-        <v>28285</v>
+        <v>24100</v>
       </c>
       <c r="U14">
-        <v>598</v>
+        <v>714</v>
       </c>
       <c r="V14">
-        <v>1330</v>
+        <v>868</v>
       </c>
       <c r="W14">
-        <v>-426</v>
+        <v>-374</v>
       </c>
       <c r="X14">
-        <v>-470</v>
+        <v>-2205</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-468</v>
+        <v>7</v>
       </c>
       <c r="AA14">
-        <v>338</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>41364</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D15">
-        <v>4047</v>
+        <v>3060</v>
       </c>
       <c r="E15">
-        <v>1838</v>
+        <v>1290</v>
       </c>
       <c r="F15">
-        <v>1921</v>
+        <v>1671</v>
       </c>
       <c r="G15">
-        <v>3662</v>
+        <v>3686</v>
       </c>
       <c r="H15">
-        <v>76054</v>
+        <v>68308</v>
       </c>
       <c r="I15">
-        <v>1575</v>
+        <v>1111</v>
       </c>
       <c r="J15">
-        <v>34893</v>
+        <v>31517</v>
       </c>
       <c r="K15">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-4184</v>
+        <v>-3091</v>
       </c>
       <c r="N15">
-        <v>6068</v>
+        <v>5582</v>
       </c>
       <c r="O15">
-        <v>47620</v>
+        <v>44000</v>
       </c>
       <c r="P15">
-        <v>37305</v>
+        <v>34393</v>
       </c>
       <c r="Q15">
-        <v>-85</v>
+        <v>392</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>41364</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>28434</v>
+        <v>24308</v>
       </c>
       <c r="U15">
-        <v>513</v>
+        <v>1106</v>
       </c>
       <c r="V15">
-        <v>1118</v>
+        <v>767</v>
       </c>
       <c r="W15">
-        <v>-425</v>
+        <v>-384</v>
       </c>
       <c r="X15">
-        <v>626</v>
+        <v>-253</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>2</v>
+        <v>488</v>
       </c>
       <c r="AA15">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>41455</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D16">
-        <v>3937</v>
+        <v>3382</v>
       </c>
       <c r="E16">
-        <v>1633</v>
+        <v>1488</v>
       </c>
       <c r="F16">
-        <v>1787</v>
+        <v>1485</v>
       </c>
       <c r="G16">
-        <v>3367</v>
+        <v>3772</v>
       </c>
       <c r="H16">
-        <v>76364</v>
+        <v>74120</v>
       </c>
       <c r="I16">
-        <v>1501</v>
+        <v>1326</v>
       </c>
       <c r="J16">
-        <v>34567</v>
+        <v>31625</v>
       </c>
       <c r="K16">
-        <v>513</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +1946,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>6487</v>
+        <v>7333</v>
       </c>
       <c r="O16">
-        <v>47709</v>
+        <v>45581</v>
       </c>
       <c r="P16">
-        <v>37190</v>
+        <v>35595</v>
       </c>
       <c r="Q16">
-        <v>-150</v>
+        <v>-89</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>41455</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>28655</v>
+        <v>28539</v>
       </c>
       <c r="U16">
-        <v>363</v>
+        <v>1017</v>
       </c>
       <c r="V16">
-        <v>1085</v>
+        <v>967</v>
       </c>
       <c r="W16">
-        <v>-435</v>
+        <v>-395</v>
       </c>
       <c r="X16">
-        <v>-353</v>
+        <v>-41</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="AA16">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>41547</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="D17">
-        <v>4291</v>
+        <v>3756</v>
       </c>
       <c r="E17">
+        <v>1420</v>
+      </c>
+      <c r="F17">
         <v>1696</v>
       </c>
-      <c r="F17">
-        <v>2092</v>
-      </c>
       <c r="G17">
-        <v>3486</v>
+        <v>3591</v>
       </c>
       <c r="H17">
-        <v>77118</v>
+        <v>74575</v>
       </c>
       <c r="I17">
-        <v>1543</v>
+        <v>1427</v>
       </c>
       <c r="J17">
-        <v>35704</v>
+        <v>33117</v>
       </c>
       <c r="K17">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2029,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>6085</v>
+        <v>6415</v>
       </c>
       <c r="O17">
-        <v>48349</v>
+        <v>46273</v>
       </c>
       <c r="P17">
-        <v>38013</v>
+        <v>36090</v>
       </c>
       <c r="Q17">
-        <v>109</v>
+        <v>-201</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>41547</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>28769</v>
+        <v>28302</v>
       </c>
       <c r="U17">
-        <v>472</v>
+        <v>816</v>
       </c>
       <c r="V17">
-        <v>1289</v>
+        <v>1058</v>
       </c>
       <c r="W17">
-        <v>-444</v>
+        <v>-417</v>
       </c>
       <c r="X17">
-        <v>138</v>
+        <v>-331</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-191</v>
+        <v>-40</v>
       </c>
       <c r="AA17">
-        <v>329</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>41639</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>126</v>
+        <v>338</v>
       </c>
       <c r="D18">
-        <v>3951</v>
+        <v>3872</v>
       </c>
       <c r="E18">
-        <v>1744</v>
+        <v>1804</v>
       </c>
       <c r="F18">
-        <v>1991</v>
+        <v>1853</v>
       </c>
       <c r="G18">
-        <v>3752</v>
+        <v>3868</v>
       </c>
       <c r="H18">
-        <v>83049</v>
+        <v>75185</v>
       </c>
       <c r="I18">
-        <v>1588</v>
+        <v>1676</v>
       </c>
       <c r="J18">
-        <v>40150</v>
+        <v>34003</v>
       </c>
       <c r="K18">
-        <v>386</v>
+        <v>979</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2112,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>6362</v>
+        <v>6075</v>
       </c>
       <c r="O18">
-        <v>48623</v>
+        <v>46900</v>
       </c>
       <c r="P18">
-        <v>42867</v>
+        <v>36309</v>
       </c>
       <c r="Q18">
-        <v>-157</v>
+        <v>-218</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>41639</v>
       </c>
       <c r="S18">
-        <v>11535</v>
+        <v>11075</v>
       </c>
       <c r="T18">
-        <v>34426</v>
+        <v>28285</v>
       </c>
       <c r="U18">
-        <v>315</v>
+        <v>598</v>
       </c>
       <c r="V18">
-        <v>975</v>
+        <v>1330</v>
       </c>
       <c r="W18">
-        <v>-456</v>
+        <v>-426</v>
       </c>
       <c r="X18">
-        <v>60</v>
+        <v>-470</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-3</v>
+        <v>-468</v>
       </c>
       <c r="AA18">
-        <v>126</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>41729</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>429</v>
+        <v>287</v>
       </c>
       <c r="D19">
-        <v>3597</v>
+        <v>4047</v>
       </c>
       <c r="E19">
-        <v>1420</v>
+        <v>1838</v>
       </c>
       <c r="F19">
-        <v>2002</v>
+        <v>1921</v>
       </c>
       <c r="G19">
-        <v>3289</v>
+        <v>3662</v>
       </c>
       <c r="H19">
-        <v>86164</v>
+        <v>76054</v>
       </c>
       <c r="I19">
-        <v>1393</v>
+        <v>1575</v>
       </c>
       <c r="J19">
-        <v>41852</v>
+        <v>34893</v>
       </c>
       <c r="K19">
-        <v>296</v>
+        <v>419</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-6305</v>
+        <v>-4184</v>
       </c>
       <c r="N19">
-        <v>6784</v>
+        <v>6068</v>
       </c>
       <c r="O19">
-        <v>50805</v>
+        <v>47620</v>
       </c>
       <c r="P19">
-        <v>45318</v>
+        <v>37305</v>
       </c>
       <c r="Q19">
-        <v>-56</v>
+        <v>-85</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>41729</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>35359</v>
+        <v>28434</v>
       </c>
       <c r="U19">
-        <v>259</v>
+        <v>513</v>
       </c>
       <c r="V19">
-        <v>1256</v>
+        <v>1118</v>
       </c>
       <c r="W19">
-        <v>-962</v>
+        <v>-425</v>
       </c>
       <c r="X19">
-        <v>1468</v>
+        <v>626</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="AA19">
-        <v>429</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>41820</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="D20">
-        <v>3463</v>
+        <v>3937</v>
       </c>
       <c r="E20">
-        <v>1349</v>
+        <v>1633</v>
       </c>
       <c r="F20">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="G20">
-        <v>2936</v>
+        <v>3367</v>
       </c>
       <c r="H20">
-        <v>85610</v>
+        <v>76364</v>
       </c>
       <c r="I20">
-        <v>1293</v>
+        <v>1501</v>
       </c>
       <c r="J20">
-        <v>41494</v>
+        <v>34567</v>
       </c>
       <c r="K20">
-        <v>619</v>
+        <v>513</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2278,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>6499</v>
+        <v>6487</v>
       </c>
       <c r="O20">
-        <v>50105</v>
+        <v>47709</v>
       </c>
       <c r="P20">
-        <v>44670</v>
+        <v>37190</v>
       </c>
       <c r="Q20">
-        <v>-96</v>
+        <v>-150</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>41820</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>35505</v>
+        <v>28655</v>
       </c>
       <c r="U20">
-        <v>163</v>
+        <v>363</v>
       </c>
       <c r="V20">
-        <v>1282</v>
+        <v>1085</v>
       </c>
       <c r="W20">
-        <v>-1044</v>
+        <v>-435</v>
       </c>
       <c r="X20">
-        <v>-410</v>
+        <v>-353</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>49</v>
+        <v>-15</v>
       </c>
       <c r="AA20">
-        <v>333</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>41912</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>186</v>
+        <v>329</v>
       </c>
       <c r="D21">
-        <v>3707</v>
+        <v>4291</v>
       </c>
       <c r="E21">
-        <v>1404</v>
+        <v>1696</v>
       </c>
       <c r="F21">
-        <v>1989</v>
+        <v>2092</v>
       </c>
       <c r="G21">
-        <v>3067</v>
+        <v>3486</v>
       </c>
       <c r="H21">
-        <v>85677</v>
+        <v>77118</v>
       </c>
       <c r="I21">
-        <v>1226</v>
+        <v>1543</v>
       </c>
       <c r="J21">
-        <v>41652</v>
+        <v>35704</v>
       </c>
       <c r="K21">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2361,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>6191</v>
+        <v>6085</v>
       </c>
       <c r="O21">
-        <v>49835</v>
+        <v>48349</v>
       </c>
       <c r="P21">
-        <v>44669</v>
+        <v>38013</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>41912</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>35842</v>
+        <v>28769</v>
       </c>
       <c r="U21">
-        <v>179</v>
+        <v>472</v>
       </c>
       <c r="V21">
-        <v>969</v>
+        <v>1289</v>
       </c>
       <c r="W21">
-        <v>-1078</v>
+        <v>-444</v>
       </c>
       <c r="X21">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>43</v>
+        <v>-191</v>
       </c>
       <c r="AA21">
-        <v>186</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>42004</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-695</v>
+        <v>126</v>
       </c>
       <c r="D22">
-        <v>3636</v>
+        <v>3951</v>
       </c>
       <c r="E22">
-        <v>1315</v>
+        <v>1744</v>
       </c>
       <c r="F22">
-        <v>2172</v>
+        <v>1991</v>
       </c>
       <c r="G22">
-        <v>2824</v>
+        <v>3752</v>
       </c>
       <c r="H22">
-        <v>84104</v>
+        <v>83049</v>
       </c>
       <c r="I22">
-        <v>1192</v>
+        <v>1588</v>
       </c>
       <c r="J22">
-        <v>42466</v>
+        <v>40150</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2444,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4065</v>
+        <v>6362</v>
       </c>
       <c r="O22">
-        <v>48701</v>
+        <v>48623</v>
       </c>
       <c r="P22">
-        <v>43304</v>
+        <v>42867</v>
       </c>
       <c r="Q22">
-        <v>50</v>
+        <v>-157</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>42004</v>
       </c>
       <c r="S22">
-        <v>11290</v>
+        <v>11535</v>
       </c>
       <c r="T22">
-        <v>35403</v>
+        <v>34426</v>
       </c>
       <c r="U22">
-        <v>229</v>
+        <v>315</v>
       </c>
       <c r="V22">
-        <v>1796</v>
+        <v>975</v>
       </c>
       <c r="W22">
-        <v>-1140</v>
+        <v>-456</v>
       </c>
       <c r="X22">
-        <v>-759</v>
+        <v>60</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="AA22">
-        <v>-695</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>42094</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>315</v>
+        <v>429</v>
       </c>
       <c r="D23">
-        <v>3195</v>
+        <v>3597</v>
       </c>
       <c r="E23">
-        <v>1203</v>
+        <v>1420</v>
       </c>
       <c r="F23">
-        <v>1899</v>
+        <v>2002</v>
       </c>
       <c r="G23">
-        <v>2481</v>
+        <v>3289</v>
       </c>
       <c r="H23">
-        <v>84229</v>
+        <v>86164</v>
       </c>
       <c r="I23">
-        <v>1017</v>
+        <v>1393</v>
       </c>
       <c r="J23">
-        <v>42105</v>
+        <v>41852</v>
       </c>
       <c r="K23">
-        <v>48</v>
+        <v>296</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-4336</v>
+        <v>-6305</v>
       </c>
       <c r="N23">
-        <v>4396</v>
+        <v>6784</v>
       </c>
       <c r="O23">
-        <v>48683</v>
+        <v>50805</v>
       </c>
       <c r="P23">
-        <v>43836</v>
+        <v>45318</v>
       </c>
       <c r="Q23">
-        <v>-54</v>
+        <v>-56</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>42094</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>35546</v>
+        <v>35359</v>
       </c>
       <c r="U23">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="V23">
-        <v>1050</v>
+        <v>1256</v>
       </c>
       <c r="W23">
-        <v>-316</v>
+        <v>-962</v>
       </c>
       <c r="X23">
-        <v>35</v>
+        <v>1468</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AA23">
-        <v>315</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>42185</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="D24">
-        <v>3144</v>
+        <v>3463</v>
       </c>
       <c r="E24">
-        <v>1278</v>
+        <v>1349</v>
       </c>
       <c r="F24">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="G24">
-        <v>2470</v>
+        <v>2936</v>
       </c>
       <c r="H24">
-        <v>84317</v>
+        <v>85610</v>
       </c>
       <c r="I24">
-        <v>1087</v>
+        <v>1293</v>
       </c>
       <c r="J24">
-        <v>40213</v>
+        <v>41494</v>
       </c>
       <c r="K24">
-        <v>24</v>
+        <v>619</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2610,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>6566</v>
+        <v>6499</v>
       </c>
       <c r="O24">
-        <v>48844</v>
+        <v>50105</v>
       </c>
       <c r="P24">
-        <v>43654</v>
+        <v>44670</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>-96</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>42185</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>35473</v>
+        <v>35505</v>
       </c>
       <c r="U24">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="V24">
-        <v>1295</v>
+        <v>1282</v>
       </c>
       <c r="W24">
-        <v>-319</v>
+        <v>-1044</v>
       </c>
       <c r="X24">
-        <v>-554</v>
+        <v>-410</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-281</v>
+        <v>49</v>
       </c>
       <c r="AA24">
-        <v>372</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>42277</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>-188</v>
+        <v>186</v>
       </c>
       <c r="D25">
-        <v>3330</v>
+        <v>3707</v>
       </c>
       <c r="E25">
-        <v>1282</v>
+        <v>1404</v>
       </c>
       <c r="F25">
-        <v>1783</v>
+        <v>1989</v>
       </c>
       <c r="G25">
-        <v>3363</v>
+        <v>3067</v>
       </c>
       <c r="H25">
-        <v>81604</v>
+        <v>85677</v>
       </c>
       <c r="I25">
-        <v>1192</v>
+        <v>1226</v>
       </c>
       <c r="J25">
-        <v>38518</v>
+        <v>41652</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,78 +2693,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>6044</v>
+        <v>6191</v>
       </c>
       <c r="O25">
-        <v>46636</v>
+        <v>49835</v>
       </c>
       <c r="P25">
-        <v>41476</v>
+        <v>44669</v>
       </c>
       <c r="Q25">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>42277</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>34968</v>
+        <v>35842</v>
       </c>
       <c r="U25">
-        <v>357</v>
+        <v>179</v>
       </c>
       <c r="V25">
-        <v>1158</v>
+        <v>969</v>
       </c>
       <c r="W25">
-        <v>-319</v>
+        <v>-1078</v>
       </c>
       <c r="X25">
-        <v>-1813</v>
+        <v>28</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AA25">
-        <v>-188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>42369</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>209</v>
+        <v>-695</v>
       </c>
       <c r="D26">
-        <v>3389</v>
+        <v>3636</v>
       </c>
       <c r="E26">
-        <v>1370</v>
+        <v>1315</v>
       </c>
       <c r="F26">
-        <v>1786</v>
+        <v>2172</v>
       </c>
       <c r="G26">
-        <v>3229</v>
+        <v>2824</v>
       </c>
       <c r="H26">
-        <v>80305</v>
+        <v>84104</v>
       </c>
       <c r="I26">
-        <v>1257</v>
+        <v>1192</v>
       </c>
       <c r="J26">
-        <v>37435</v>
+        <v>42466</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,164 +2776,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>5924</v>
+        <v>4065</v>
       </c>
       <c r="O26">
-        <v>45503</v>
+        <v>48701</v>
       </c>
       <c r="P26">
-        <v>40138</v>
+        <v>43304</v>
       </c>
       <c r="Q26">
-        <v>327</v>
+        <v>50</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>42369</v>
       </c>
       <c r="S26">
-        <v>11121</v>
+        <v>11290</v>
       </c>
       <c r="T26">
-        <v>34802</v>
+        <v>35403</v>
       </c>
       <c r="U26">
-        <v>684</v>
+        <v>229</v>
       </c>
       <c r="V26">
-        <v>1292</v>
+        <v>1796</v>
       </c>
       <c r="W26">
-        <v>-318</v>
+        <v>-1140</v>
       </c>
       <c r="X26">
-        <v>-305</v>
+        <v>-759</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="AA26">
-        <v>209</v>
+        <v>-695</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>42460</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>440</v>
+        <v>315</v>
       </c>
       <c r="D27">
-        <v>3424</v>
+        <v>3195</v>
       </c>
       <c r="E27">
-        <v>1263</v>
+        <v>1203</v>
       </c>
       <c r="F27">
-        <v>1830</v>
+        <v>1899</v>
       </c>
       <c r="G27">
-        <v>2675</v>
+        <v>2481</v>
       </c>
       <c r="H27">
-        <v>79793</v>
+        <v>84229</v>
       </c>
       <c r="I27">
-        <v>1214</v>
+        <v>1017</v>
       </c>
       <c r="J27">
-        <v>35526</v>
+        <v>42105</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-2122</v>
+        <v>-4336</v>
       </c>
       <c r="N27">
-        <v>6689</v>
+        <v>4396</v>
       </c>
       <c r="O27">
-        <v>44788</v>
+        <v>48683</v>
       </c>
       <c r="P27">
-        <v>39484</v>
+        <v>43836</v>
       </c>
       <c r="Q27">
-        <v>-301</v>
+        <v>-54</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>42460</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>35005</v>
+        <v>35546</v>
       </c>
       <c r="U27">
-        <v>396</v>
+        <v>175</v>
       </c>
       <c r="V27">
-        <v>886</v>
+        <v>1050</v>
       </c>
       <c r="W27">
-        <v>-319</v>
+        <v>-316</v>
       </c>
       <c r="X27">
-        <v>-538</v>
+        <v>35</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-53</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>440</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>42551</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D28">
-        <v>3368</v>
+        <v>3144</v>
       </c>
       <c r="E28">
-        <v>1184</v>
+        <v>1278</v>
       </c>
       <c r="F28">
-        <v>1742</v>
+        <v>1789</v>
       </c>
       <c r="G28">
-        <v>2726</v>
+        <v>2470</v>
       </c>
       <c r="H28">
-        <v>80203</v>
+        <v>84317</v>
       </c>
       <c r="I28">
-        <v>1353</v>
+        <v>1087</v>
       </c>
       <c r="J28">
-        <v>35130</v>
+        <v>40213</v>
       </c>
       <c r="K28">
-        <v>261</v>
+        <v>24</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +2942,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>6363</v>
+        <v>6566</v>
       </c>
       <c r="O28">
-        <v>43989</v>
+        <v>48844</v>
       </c>
       <c r="P28">
-        <v>38375</v>
+        <v>43654</v>
       </c>
       <c r="Q28">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>42551</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>36214</v>
+        <v>35473</v>
       </c>
       <c r="U28">
-        <v>452</v>
+        <v>180</v>
       </c>
       <c r="V28">
-        <v>1280</v>
+        <v>1295</v>
       </c>
       <c r="W28">
         <v>-319</v>
       </c>
       <c r="X28">
-        <v>-297</v>
+        <v>-554</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +2981,42 @@
         <v>-281</v>
       </c>
       <c r="AA28">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>42643</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>373</v>
+        <v>-188</v>
       </c>
       <c r="D29">
-        <v>3281</v>
+        <v>3330</v>
       </c>
       <c r="E29">
-        <v>1194</v>
+        <v>1282</v>
       </c>
       <c r="F29">
-        <v>1665</v>
+        <v>1783</v>
       </c>
       <c r="G29">
-        <v>2613</v>
+        <v>3363</v>
       </c>
       <c r="H29">
-        <v>80351</v>
+        <v>81604</v>
       </c>
       <c r="I29">
-        <v>1358</v>
+        <v>1192</v>
       </c>
       <c r="J29">
-        <v>35147</v>
+        <v>38518</v>
       </c>
       <c r="K29">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3025,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>6174</v>
+        <v>6044</v>
       </c>
       <c r="O29">
-        <v>43827</v>
+        <v>46636</v>
       </c>
       <c r="P29">
-        <v>38316</v>
+        <v>41476</v>
       </c>
       <c r="Q29">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>42643</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>36524</v>
+        <v>34968</v>
       </c>
       <c r="U29">
-        <v>539</v>
+        <v>357</v>
       </c>
       <c r="V29">
-        <v>1141</v>
+        <v>1158</v>
       </c>
       <c r="W29">
         <v>-319</v>
       </c>
       <c r="X29">
-        <v>-159</v>
+        <v>-1813</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-45</v>
+        <v>51</v>
       </c>
       <c r="AA29">
-        <v>373</v>
+        <v>-188</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>42735</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-1006</v>
+        <v>209</v>
       </c>
       <c r="D30">
-        <v>3632</v>
+        <v>3389</v>
       </c>
       <c r="E30">
-        <v>1448</v>
+        <v>1370</v>
       </c>
       <c r="F30">
-        <v>1654</v>
+        <v>1786</v>
       </c>
       <c r="G30">
-        <v>2715</v>
+        <v>3229</v>
       </c>
       <c r="H30">
-        <v>79055</v>
+        <v>80305</v>
       </c>
       <c r="I30">
-        <v>1340</v>
+        <v>1257</v>
       </c>
       <c r="J30">
-        <v>35077</v>
+        <v>37435</v>
       </c>
       <c r="K30">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3108,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>6181</v>
+        <v>5924</v>
       </c>
       <c r="O30">
-        <v>43931</v>
+        <v>45503</v>
       </c>
       <c r="P30">
-        <v>37908</v>
+        <v>40138</v>
       </c>
       <c r="Q30">
-        <v>-294</v>
+        <v>327</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>42735</v>
       </c>
       <c r="S30">
-        <v>10897</v>
+        <v>11121</v>
       </c>
       <c r="T30">
-        <v>35124</v>
+        <v>34802</v>
       </c>
       <c r="U30">
-        <v>264</v>
+        <v>684</v>
       </c>
       <c r="V30">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="W30">
-        <v>-319</v>
+        <v>-318</v>
       </c>
       <c r="X30">
-        <v>-687</v>
+        <v>-305</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="AA30">
-        <v>-1006</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>42825</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>524</v>
+        <v>440</v>
       </c>
       <c r="D31">
-        <v>3418</v>
+        <v>3424</v>
       </c>
       <c r="E31">
-        <v>1377</v>
+        <v>1263</v>
       </c>
       <c r="F31">
-        <v>1780</v>
+        <v>1830</v>
       </c>
       <c r="G31">
-        <v>2628</v>
+        <v>2675</v>
       </c>
       <c r="H31">
-        <v>79011</v>
+        <v>79793</v>
       </c>
       <c r="I31">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="J31">
-        <v>35699</v>
+        <v>35526</v>
       </c>
       <c r="K31">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-5684</v>
+        <v>-2122</v>
       </c>
       <c r="N31">
-        <v>5429</v>
+        <v>6689</v>
       </c>
       <c r="O31">
-        <v>43353</v>
+        <v>44788</v>
       </c>
       <c r="P31">
-        <v>38234</v>
+        <v>39484</v>
       </c>
       <c r="Q31">
-        <v>37</v>
+        <v>-301</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>42825</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>35658</v>
+        <v>35005</v>
       </c>
       <c r="U31">
-        <v>294</v>
+        <v>396</v>
       </c>
       <c r="V31">
-        <v>974</v>
+        <v>886</v>
       </c>
       <c r="W31">
-        <v>-316</v>
+        <v>-319</v>
       </c>
       <c r="X31">
-        <v>-209</v>
+        <v>-538</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-24</v>
+        <v>-53</v>
       </c>
       <c r="AA31">
-        <v>524</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>42916</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>-141</v>
+        <v>376</v>
       </c>
       <c r="D32">
-        <v>3428</v>
+        <v>3368</v>
       </c>
       <c r="E32">
-        <v>1401</v>
+        <v>1184</v>
       </c>
       <c r="F32">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="G32">
-        <v>2634</v>
+        <v>2726</v>
       </c>
       <c r="H32">
-        <v>78315</v>
+        <v>80203</v>
       </c>
       <c r="I32">
-        <v>1269</v>
+        <v>1353</v>
       </c>
       <c r="J32">
-        <v>35561</v>
+        <v>35130</v>
       </c>
       <c r="K32">
-        <v>1978</v>
+        <v>261</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3274,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>5379</v>
+        <v>6363</v>
       </c>
       <c r="O32">
-        <v>43240</v>
+        <v>43989</v>
       </c>
       <c r="P32">
-        <v>37740</v>
+        <v>38375</v>
       </c>
       <c r="Q32">
-        <v>-16</v>
+        <v>32</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>42916</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>35075</v>
+        <v>36214</v>
       </c>
       <c r="U32">
-        <v>271</v>
+        <v>452</v>
       </c>
       <c r="V32">
-        <v>1494</v>
+        <v>1280</v>
       </c>
       <c r="W32">
-        <v>-481</v>
+        <v>-319</v>
       </c>
       <c r="X32">
-        <v>-801</v>
+        <v>-297</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>62</v>
+        <v>-281</v>
       </c>
       <c r="AA32">
-        <v>-141</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>43008</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>732</v>
+        <v>373</v>
       </c>
       <c r="D33">
-        <v>3517</v>
+        <v>3281</v>
       </c>
       <c r="E33">
-        <v>1430</v>
+        <v>1194</v>
       </c>
       <c r="F33">
-        <v>1736</v>
+        <v>1665</v>
       </c>
       <c r="G33">
-        <v>5766</v>
+        <v>2613</v>
       </c>
       <c r="H33">
-        <v>79063</v>
+        <v>80351</v>
       </c>
       <c r="I33">
-        <v>1307</v>
+        <v>1358</v>
       </c>
       <c r="J33">
-        <v>35510</v>
+        <v>35147</v>
       </c>
       <c r="K33">
-        <v>2182</v>
+        <v>192</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3357,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>5489</v>
+        <v>6174</v>
       </c>
       <c r="O33">
-        <v>43164</v>
+        <v>43827</v>
       </c>
       <c r="P33">
-        <v>37880</v>
+        <v>38316</v>
       </c>
       <c r="Q33">
-        <v>3213</v>
+        <v>102</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>43008</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>35899</v>
+        <v>36524</v>
       </c>
       <c r="U33">
-        <v>3459</v>
+        <v>539</v>
       </c>
       <c r="V33">
-        <v>907</v>
+        <v>1141</v>
       </c>
       <c r="W33">
-        <v>-483</v>
+        <v>-319</v>
       </c>
       <c r="X33">
-        <v>157</v>
+        <v>-159</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-102</v>
+        <v>-45</v>
       </c>
       <c r="AA33">
-        <v>732</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>43100</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>494</v>
+        <v>-1006</v>
       </c>
       <c r="D34">
-        <v>3781</v>
+        <v>3632</v>
       </c>
       <c r="E34">
-        <v>1498</v>
+        <v>1448</v>
       </c>
       <c r="F34">
-        <v>1942</v>
+        <v>1654</v>
       </c>
       <c r="G34">
-        <v>5722</v>
+        <v>2715</v>
       </c>
       <c r="H34">
-        <v>78866</v>
+        <v>79055</v>
       </c>
       <c r="I34">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="J34">
-        <v>34014</v>
+        <v>35077</v>
       </c>
       <c r="K34">
-        <v>3233</v>
+        <v>365</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3440,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>7557</v>
+        <v>6181</v>
       </c>
       <c r="O34">
-        <v>43669</v>
+        <v>43931</v>
       </c>
       <c r="P34">
-        <v>37439</v>
+        <v>37908</v>
       </c>
       <c r="Q34">
-        <v>-229</v>
+        <v>-294</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>43100</v>
       </c>
       <c r="S34">
-        <v>11012</v>
+        <v>10897</v>
       </c>
       <c r="T34">
-        <v>35197</v>
+        <v>35124</v>
       </c>
       <c r="U34">
-        <v>3280</v>
+        <v>264</v>
       </c>
       <c r="V34">
-        <v>1668</v>
+        <v>1294</v>
       </c>
       <c r="W34">
-        <v>-494</v>
+        <v>-319</v>
       </c>
       <c r="X34">
-        <v>-971</v>
+        <v>-687</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-132</v>
+        <v>69</v>
       </c>
       <c r="AA34">
-        <v>494</v>
+        <v>-1006</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>43190</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>556</v>
+        <v>524</v>
       </c>
       <c r="D35">
-        <v>3429</v>
+        <v>3418</v>
       </c>
       <c r="E35">
-        <v>1336</v>
+        <v>1377</v>
       </c>
       <c r="F35">
-        <v>1883</v>
+        <v>1780</v>
       </c>
       <c r="G35">
-        <v>2262</v>
+        <v>2628</v>
       </c>
       <c r="H35">
-        <v>76292</v>
+        <v>79011</v>
       </c>
       <c r="I35">
-        <v>1012</v>
+        <v>1221</v>
       </c>
       <c r="J35">
-        <v>33352</v>
+        <v>35699</v>
       </c>
       <c r="K35">
-        <v>2309</v>
+        <v>563</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-2990</v>
+        <v>-5684</v>
       </c>
       <c r="N35">
-        <v>5009</v>
+        <v>5429</v>
       </c>
       <c r="O35">
-        <v>41131</v>
+        <v>43353</v>
       </c>
       <c r="P35">
-        <v>36581</v>
+        <v>38234</v>
       </c>
       <c r="Q35">
-        <v>-3061</v>
+        <v>37</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>43190</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>35161</v>
+        <v>35658</v>
       </c>
       <c r="U35">
-        <v>221</v>
+        <v>294</v>
       </c>
       <c r="V35">
-        <v>635</v>
+        <v>974</v>
       </c>
       <c r="W35">
-        <v>-455</v>
+        <v>-316</v>
       </c>
       <c r="X35">
-        <v>-2908</v>
+        <v>-209</v>
       </c>
       <c r="Y35">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-250</v>
+        <v>-24</v>
       </c>
       <c r="AA35">
-        <v>556</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>518</v>
+        <v>-141</v>
       </c>
       <c r="D36">
-        <v>3214</v>
+        <v>3428</v>
       </c>
       <c r="E36">
-        <v>1272</v>
+        <v>1401</v>
       </c>
       <c r="F36">
-        <v>1791</v>
+        <v>1743</v>
       </c>
       <c r="G36">
-        <v>2300</v>
+        <v>2634</v>
       </c>
       <c r="H36">
-        <v>76695</v>
+        <v>78315</v>
       </c>
       <c r="I36">
-        <v>900</v>
+        <v>1269</v>
       </c>
       <c r="J36">
-        <v>33006</v>
+        <v>35561</v>
       </c>
       <c r="K36">
-        <v>2871</v>
+        <v>1978</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3606,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>5659</v>
+        <v>5379</v>
       </c>
       <c r="O36">
-        <v>41436</v>
+        <v>43240</v>
       </c>
       <c r="P36">
-        <v>36780</v>
+        <v>37740</v>
       </c>
       <c r="Q36">
-        <v>-21</v>
+        <v>-16</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>35259</v>
+        <v>35075</v>
       </c>
       <c r="U36">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="V36">
-        <v>1463</v>
+        <v>1494</v>
       </c>
       <c r="W36">
-        <v>-569</v>
+        <v>-481</v>
       </c>
       <c r="X36">
-        <v>-505</v>
+        <v>-801</v>
       </c>
       <c r="Y36">
-        <v>662</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-431</v>
+        <v>62</v>
       </c>
       <c r="AA36">
-        <v>518</v>
+        <v>-141</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>43373</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>506</v>
+        <v>732</v>
       </c>
       <c r="D37">
-        <v>3214</v>
+        <v>3517</v>
       </c>
       <c r="E37">
-        <v>1336</v>
+        <v>1430</v>
       </c>
       <c r="F37">
-        <v>1784</v>
+        <v>1736</v>
       </c>
       <c r="G37">
-        <v>2365</v>
+        <v>5766</v>
       </c>
       <c r="H37">
-        <v>76931</v>
+        <v>79063</v>
       </c>
       <c r="I37">
-        <v>916</v>
+        <v>1307</v>
       </c>
       <c r="J37">
-        <v>32113</v>
+        <v>35510</v>
       </c>
       <c r="K37">
-        <v>4250</v>
+        <v>2182</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3689,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>6826</v>
+        <v>5489</v>
       </c>
       <c r="O37">
-        <v>41656</v>
+        <v>43164</v>
       </c>
       <c r="P37">
-        <v>37235</v>
+        <v>37880</v>
       </c>
       <c r="Q37">
-        <v>19</v>
+        <v>3213</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>43373</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>35275</v>
+        <v>35899</v>
       </c>
       <c r="U37">
-        <v>241</v>
+        <v>3459</v>
       </c>
       <c r="V37">
-        <v>1023</v>
+        <v>907</v>
       </c>
       <c r="W37">
-        <v>-569</v>
+        <v>-483</v>
       </c>
       <c r="X37">
-        <v>-187</v>
+        <v>157</v>
       </c>
       <c r="Y37">
-        <v>661</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-260</v>
+        <v>-102</v>
       </c>
       <c r="AA37">
-        <v>506</v>
+        <v>732</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>43465</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>610</v>
+        <v>494</v>
       </c>
       <c r="D38">
-        <v>3352</v>
+        <v>3781</v>
       </c>
       <c r="E38">
-        <v>1370</v>
+        <v>1498</v>
       </c>
       <c r="F38">
-        <v>1897</v>
+        <v>1942</v>
       </c>
       <c r="G38">
-        <v>3238</v>
+        <v>5722</v>
       </c>
       <c r="H38">
-        <v>74157</v>
+        <v>78866</v>
       </c>
       <c r="I38">
-        <v>914</v>
+        <v>1337</v>
       </c>
       <c r="J38">
-        <v>31914</v>
+        <v>34014</v>
       </c>
       <c r="K38">
-        <v>37</v>
+        <v>3233</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3772,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>5100</v>
+        <v>7557</v>
       </c>
       <c r="O38">
-        <v>39268</v>
+        <v>43669</v>
       </c>
       <c r="P38">
-        <v>34722</v>
+        <v>37439</v>
       </c>
       <c r="Q38">
-        <v>-59</v>
+        <v>-229</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>43465</v>
       </c>
       <c r="S38">
-        <v>11086</v>
+        <v>11012</v>
       </c>
       <c r="T38">
-        <v>34889</v>
+        <v>35197</v>
       </c>
       <c r="U38">
-        <v>185</v>
+        <v>3280</v>
       </c>
       <c r="V38">
-        <v>1627</v>
+        <v>1668</v>
       </c>
       <c r="W38">
-        <v>-581</v>
+        <v>-494</v>
       </c>
       <c r="X38">
-        <v>-2585</v>
+        <v>-971</v>
       </c>
       <c r="Y38">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-25</v>
+        <v>-132</v>
       </c>
       <c r="AA38">
-        <v>610</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>43555</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-306</v>
+        <v>556</v>
       </c>
       <c r="D39">
-        <v>3106</v>
+        <v>3429</v>
       </c>
       <c r="E39">
-        <v>1186</v>
+        <v>1336</v>
       </c>
       <c r="F39">
-        <v>1823</v>
+        <v>1883</v>
       </c>
       <c r="G39">
-        <v>3096</v>
+        <v>2262</v>
       </c>
       <c r="H39">
-        <v>73530</v>
+        <v>76292</v>
       </c>
       <c r="I39">
-        <v>752</v>
+        <v>1012</v>
       </c>
       <c r="J39">
-        <v>31414</v>
+        <v>33352</v>
       </c>
       <c r="K39">
-        <v>1900</v>
+        <v>2309</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-1969</v>
+        <v>-2990</v>
       </c>
       <c r="N39">
-        <v>5608</v>
+        <v>5009</v>
       </c>
       <c r="O39">
-        <v>39273</v>
+        <v>41131</v>
       </c>
       <c r="P39">
-        <v>34960</v>
+        <v>36581</v>
       </c>
       <c r="Q39">
-        <v>733</v>
+        <v>-3061</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>43555</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>34257</v>
+        <v>35161</v>
       </c>
       <c r="U39">
-        <v>360</v>
+        <v>221</v>
       </c>
       <c r="V39">
-        <v>893</v>
+        <v>635</v>
       </c>
       <c r="W39">
-        <v>-587</v>
+        <v>-455</v>
       </c>
       <c r="X39">
-        <v>-487</v>
+        <v>-2908</v>
       </c>
       <c r="Y39">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="Z39">
-        <v>-110</v>
+        <v>-250</v>
       </c>
       <c r="AA39">
-        <v>-306</v>
+        <v>556</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>43646</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-637</v>
+        <v>518</v>
       </c>
       <c r="D40">
-        <v>2560</v>
+        <v>3214</v>
       </c>
       <c r="E40">
-        <v>1073</v>
+        <v>1272</v>
       </c>
       <c r="F40">
-        <v>1513</v>
+        <v>1791</v>
       </c>
       <c r="G40">
-        <v>2490</v>
+        <v>2300</v>
       </c>
       <c r="H40">
-        <v>71784</v>
+        <v>76695</v>
       </c>
       <c r="I40">
-        <v>698</v>
+        <v>900</v>
       </c>
       <c r="J40">
-        <v>31450</v>
+        <v>33006</v>
       </c>
       <c r="K40">
-        <v>1900</v>
+        <v>2871</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +3938,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>5202</v>
+        <v>5659</v>
       </c>
       <c r="O40">
-        <v>38892</v>
+        <v>41436</v>
       </c>
       <c r="P40">
-        <v>34465</v>
+        <v>36780</v>
       </c>
       <c r="Q40">
-        <v>-396</v>
+        <v>-21</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>43646</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>32892</v>
+        <v>35259</v>
       </c>
       <c r="U40">
-        <v>526</v>
+        <v>213</v>
       </c>
       <c r="V40">
-        <v>1339</v>
+        <v>1463</v>
       </c>
       <c r="W40">
-        <v>-617</v>
+        <v>-569</v>
       </c>
       <c r="X40">
-        <v>-1162</v>
+        <v>-505</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>662</v>
       </c>
       <c r="Z40">
-        <v>-29</v>
+        <v>-431</v>
       </c>
       <c r="AA40">
-        <v>-637</v>
+        <v>518</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>43738</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="D41">
-        <v>2919</v>
+        <v>3214</v>
       </c>
       <c r="E41">
-        <v>1142</v>
+        <v>1336</v>
       </c>
       <c r="F41">
-        <v>1621</v>
+        <v>1784</v>
       </c>
       <c r="G41">
-        <v>2672</v>
+        <v>2365</v>
       </c>
       <c r="H41">
-        <v>71821</v>
+        <v>76931</v>
       </c>
       <c r="I41">
-        <v>774</v>
+        <v>916</v>
       </c>
       <c r="J41">
-        <v>32668</v>
+        <v>32113</v>
       </c>
       <c r="K41">
-        <v>1500</v>
+        <v>4250</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4021,460 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>4376</v>
+        <v>6826</v>
       </c>
       <c r="O41">
-        <v>39129</v>
+        <v>41656</v>
       </c>
       <c r="P41">
-        <v>34731</v>
+        <v>37235</v>
       </c>
       <c r="Q41">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>43738</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>32692</v>
+        <v>35275</v>
       </c>
       <c r="U41">
-        <v>632</v>
+        <v>241</v>
       </c>
       <c r="V41">
-        <v>1050</v>
+        <v>1023</v>
       </c>
       <c r="W41">
-        <v>-620</v>
+        <v>-569</v>
       </c>
       <c r="X41">
-        <v>-364</v>
+        <v>-187</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="Z41">
-        <v>-121</v>
+        <v>-260</v>
       </c>
       <c r="AA41">
-        <v>455</v>
+        <v>506</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>43830</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>610</v>
+      </c>
+      <c r="D42">
+        <v>3352</v>
+      </c>
+      <c r="E42">
+        <v>1370</v>
+      </c>
+      <c r="F42">
+        <v>1897</v>
+      </c>
+      <c r="G42">
+        <v>3238</v>
+      </c>
+      <c r="H42">
+        <v>74157</v>
+      </c>
+      <c r="I42">
+        <v>914</v>
+      </c>
+      <c r="J42">
+        <v>31914</v>
+      </c>
+      <c r="K42">
+        <v>37</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>5100</v>
+      </c>
+      <c r="O42">
+        <v>39268</v>
+      </c>
+      <c r="P42">
+        <v>34722</v>
+      </c>
+      <c r="Q42">
+        <v>-59</v>
+      </c>
+      <c r="R42">
+        <v>43830</v>
+      </c>
+      <c r="S42">
+        <v>11086</v>
+      </c>
+      <c r="T42">
+        <v>34889</v>
+      </c>
+      <c r="U42">
+        <v>185</v>
+      </c>
+      <c r="V42">
+        <v>1627</v>
+      </c>
+      <c r="W42">
+        <v>-581</v>
+      </c>
+      <c r="X42">
+        <v>-2585</v>
+      </c>
+      <c r="Y42">
+        <v>291</v>
+      </c>
+      <c r="Z42">
+        <v>-25</v>
+      </c>
+      <c r="AA42">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>-306</v>
+      </c>
+      <c r="D43">
+        <v>3106</v>
+      </c>
+      <c r="E43">
+        <v>1186</v>
+      </c>
+      <c r="F43">
+        <v>1823</v>
+      </c>
+      <c r="G43">
+        <v>3096</v>
+      </c>
+      <c r="H43">
+        <v>73530</v>
+      </c>
+      <c r="I43">
+        <v>752</v>
+      </c>
+      <c r="J43">
+        <v>31414</v>
+      </c>
+      <c r="K43">
+        <v>1900</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-1969</v>
+      </c>
+      <c r="N43">
+        <v>5608</v>
+      </c>
+      <c r="O43">
+        <v>39273</v>
+      </c>
+      <c r="P43">
+        <v>34960</v>
+      </c>
+      <c r="Q43">
+        <v>733</v>
+      </c>
+      <c r="R43">
+        <v>43921</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>34257</v>
+      </c>
+      <c r="U43">
+        <v>360</v>
+      </c>
+      <c r="V43">
+        <v>893</v>
+      </c>
+      <c r="W43">
+        <v>-587</v>
+      </c>
+      <c r="X43">
+        <v>-487</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-110</v>
+      </c>
+      <c r="AA43">
+        <v>-306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>-637</v>
+      </c>
+      <c r="D44">
+        <v>2560</v>
+      </c>
+      <c r="E44">
+        <v>1073</v>
+      </c>
+      <c r="F44">
+        <v>1513</v>
+      </c>
+      <c r="G44">
+        <v>2490</v>
+      </c>
+      <c r="H44">
+        <v>71784</v>
+      </c>
+      <c r="I44">
+        <v>698</v>
+      </c>
+      <c r="J44">
+        <v>31450</v>
+      </c>
+      <c r="K44">
+        <v>1900</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>5202</v>
+      </c>
+      <c r="O44">
+        <v>38892</v>
+      </c>
+      <c r="P44">
+        <v>34465</v>
+      </c>
+      <c r="Q44">
+        <v>-396</v>
+      </c>
+      <c r="R44">
+        <v>44012</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>32892</v>
+      </c>
+      <c r="U44">
+        <v>526</v>
+      </c>
+      <c r="V44">
+        <v>1339</v>
+      </c>
+      <c r="W44">
+        <v>-617</v>
+      </c>
+      <c r="X44">
+        <v>-1162</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-29</v>
+      </c>
+      <c r="AA44">
+        <v>-637</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>455</v>
+      </c>
+      <c r="D45">
+        <v>2919</v>
+      </c>
+      <c r="E45">
+        <v>1142</v>
+      </c>
+      <c r="F45">
+        <v>1621</v>
+      </c>
+      <c r="G45">
+        <v>2672</v>
+      </c>
+      <c r="H45">
+        <v>71821</v>
+      </c>
+      <c r="I45">
+        <v>774</v>
+      </c>
+      <c r="J45">
+        <v>32668</v>
+      </c>
+      <c r="K45">
+        <v>1500</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>4376</v>
+      </c>
+      <c r="O45">
+        <v>39129</v>
+      </c>
+      <c r="P45">
+        <v>34731</v>
+      </c>
+      <c r="Q45">
+        <v>153</v>
+      </c>
+      <c r="R45">
+        <v>44104</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>32692</v>
+      </c>
+      <c r="U45">
+        <v>632</v>
+      </c>
+      <c r="V45">
+        <v>1050</v>
+      </c>
+      <c r="W45">
+        <v>-620</v>
+      </c>
+      <c r="X45">
+        <v>-364</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-121</v>
+      </c>
+      <c r="AA45">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
         <v>607</v>
       </c>
-      <c r="D42">
+      <c r="D46">
         <v>3115</v>
       </c>
-      <c r="E42">
+      <c r="E46">
         <v>1267</v>
       </c>
-      <c r="F42">
+      <c r="F46">
         <v>1723</v>
       </c>
-      <c r="G42">
+      <c r="G46">
         <v>3203</v>
       </c>
-      <c r="H42">
+      <c r="H46">
         <v>71973</v>
       </c>
-      <c r="I42">
+      <c r="I46">
         <v>837</v>
       </c>
-      <c r="J42">
+      <c r="J46">
         <v>32137</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
         <v>5074</v>
       </c>
-      <c r="O42">
+      <c r="O46">
         <v>39407</v>
       </c>
-      <c r="P42">
+      <c r="P46">
         <v>35002</v>
       </c>
-      <c r="Q42">
+      <c r="Q46">
         <v>510</v>
       </c>
-      <c r="R42">
+      <c r="R46">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S46">
         <v>10524</v>
       </c>
-      <c r="T42">
+      <c r="T46">
         <v>32566</v>
       </c>
-      <c r="U42">
+      <c r="U46">
         <v>1184</v>
       </c>
-      <c r="V42">
+      <c r="V46">
         <v>1268</v>
       </c>
-      <c r="W42">
+      <c r="W46">
         <v>-617</v>
       </c>
-      <c r="X42">
+      <c r="X46">
         <v>-625</v>
       </c>
-      <c r="Y42">
+      <c r="Y46">
         <v>264</v>
       </c>
-      <c r="Z42">
+      <c r="Z46">
         <v>28</v>
       </c>
-      <c r="AA42">
+      <c r="AA46">
         <v>607</v>
       </c>
     </row>
